--- a/quant/vignettes/articles/report.xlsx
+++ b/quant/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-02 15:06:39.332728</t>
+          <t>2025-10-04 18:22:08.154391</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MiDAR Version</t>
+          <t>MRMhub Version</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2.3</t>
+          <t>0.2.5</t>
         </is>
       </c>
     </row>

--- a/quant/vignettes/articles/report.xlsx
+++ b/quant/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-04 18:22:08.154391</t>
+          <t>2025-10-04 18:36:01.363502</t>
         </is>
       </c>
     </row>
